--- a/VersionRecords/Version 3.3.0/版本Bug和特性计划及评审表v3.3.0_磐石组.xlsx
+++ b/VersionRecords/Version 3.3.0/版本Bug和特性计划及评审表v3.3.0_磐石组.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 3.3.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="版本3.1.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本3.3.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
@@ -863,7 +863,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
